--- a/src/main/resources/excel/Ingles Basico A1 Presente Simple y vocabulario.xlsx
+++ b/src/main/resources/excel/Ingles Basico A1 Presente Simple y vocabulario.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="14"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="nationality 2" sheetId="1" state="visible" r:id="rId2"/>
@@ -18,11 +18,6 @@
     <sheet name="Information questions" sheetId="8" state="visible" r:id="rId9"/>
     <sheet name="my daily rutine 3" sheetId="9" state="visible" r:id="rId10"/>
     <sheet name="my daile rutime 4" sheetId="10" state="visible" r:id="rId11"/>
-    <sheet name="my daily routine 2" sheetId="11" state="visible" r:id="rId12"/>
-    <sheet name="my daily routine" sheetId="12" state="visible" r:id="rId13"/>
-    <sheet name="describing people" sheetId="13" state="visible" r:id="rId14"/>
-    <sheet name="Simple Present 2" sheetId="14" state="visible" r:id="rId15"/>
-    <sheet name="Simple Present" sheetId="15" state="visible" r:id="rId16"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -34,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="208">
   <si>
     <t xml:space="preserve">vietnam</t>
   </si>
@@ -658,306 +653,6 @@
   </si>
   <si>
     <t xml:space="preserve">él cocina la cena y ve la televisión</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Have lunch</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Almorzar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Work on my computer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trabajar en el computador</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Finish work at 5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Terminar de trabajar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Go home</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ir a casa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arrive home</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Llegar a casa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Feed the dog</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alimentar al perro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cook dinner</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hacer la cena</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eat dinner</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cenar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Have dinner</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Watch TV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ver TV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Read a book</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Leer un libro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Go to bed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ir a dormir</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wake up</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Despertar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Turn off my alarm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Apagar la alarma</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Get up</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Levantarse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Take a shower</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tomar un baño</t>
-  </si>
-  <si>
-    <t xml:space="preserve">have a shower</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Get dressed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vestirse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Comb the hair</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Peinarse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Make breakfast</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hacer el desayuno</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eat breakfast</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Desayunar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Have breakfast</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brush my teeth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cepillarse los dientes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Go to work</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ir al trabajo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Start work at 9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Empezar a trabajar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Answer emails</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Responder correos electrónicos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eat lunch</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This is my father. He is 56 years old</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Este es mi padre. tiene 56 años</t>
-  </si>
-  <si>
-    <t xml:space="preserve">He lives in California and he is a sales consultant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vive en California y es consultor de ventas.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">He likes to run in the morning and he loves eating vegetables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Le gusta correr por la mañana y le encanta comer verduras.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">He doesn't watch TV very often but he reads the newspaper</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No ve la televisión muy a menudo, pero lee el periódico.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">He doesn't speak English but he speaks Italian</t>
-  </si>
-  <si>
-    <t xml:space="preserve">no habla ingles pero habla italiano</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I love my dad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">amo a mi papá</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I don’t listen to music</t>
-  </si>
-  <si>
-    <t xml:space="preserve">no escucho musica</t>
-  </si>
-  <si>
-    <t xml:space="preserve">he cooks very well</t>
-  </si>
-  <si>
-    <t xml:space="preserve">el cocina muy bien</t>
-  </si>
-  <si>
-    <t xml:space="preserve">he doesn’t cook very well</t>
-  </si>
-  <si>
-    <t xml:space="preserve">no cocina muy bien</t>
-  </si>
-  <si>
-    <t xml:space="preserve">they write letters</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ellos escriben cartas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">the don’t write letters</t>
-  </si>
-  <si>
-    <t xml:space="preserve">el no escribe cartas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">do you play any musical instrument?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">¿tocas algún instrumento musical?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">do you eat vegetable?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">¿comes verdura?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">do you live in an apartement?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vives en un apartamento?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">do you speak spanish?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">¿Hablas español?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I play soccer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">juego al fútbol</t>
-  </si>
-  <si>
-    <t xml:space="preserve">she plays soccer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ella juega fútbol</t>
-  </si>
-  <si>
-    <t xml:space="preserve">you listen to music</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Escuchas musica</t>
-  </si>
-  <si>
-    <t xml:space="preserve">he listens to music</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Él escucha música</t>
-  </si>
-  <si>
-    <t xml:space="preserve">we watch te</t>
-  </si>
-  <si>
-    <t xml:space="preserve">te miramos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">she watches tv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ella ve la televisión</t>
-  </si>
-  <si>
-    <t xml:space="preserve">they study english</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ellos estudian ingles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">he studies english</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Él estudia inglés</t>
-  </si>
-  <si>
-    <t xml:space="preserve">she doesn’t play soccer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ella no juega futbol</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I listen to music</t>
-  </si>
-  <si>
-    <t xml:space="preserve">escucho música</t>
   </si>
 </sst>
 </file>
@@ -1064,7 +759,7 @@
       <selection pane="topLeft" activeCell="B28" activeCellId="0" sqref="B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1204,11 +899,11 @@
   </sheetPr>
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B19" activeCellId="0" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="58.53"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="2" style="0" width="48.88"/>
@@ -1260,562 +955,6 @@
       </c>
       <c r="B6" s="0" t="s">
         <v>207</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:B12"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C13" activeCellId="0" sqref="C13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="25.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="27.95"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>230</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:B15"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A22" activeCellId="0" sqref="A22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="35.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="44.78"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>209</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:B6"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A15" activeCellId="0" sqref="A15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="52.96"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="51.47"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>269</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:B9"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="37.05"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="37.23"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>287</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:B10"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B23" activeCellId="0" sqref="B23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="43.8"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="42.48"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>307</v>
       </c>
     </row>
   </sheetData>
@@ -1840,7 +979,7 @@
       <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="52.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="60.2"/>
@@ -1964,7 +1103,7 @@
       <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="45.76"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="32.05"/>
@@ -2080,7 +1219,7 @@
       <selection pane="topLeft" activeCell="B24" activeCellId="0" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="58.17"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="89.29"/>
@@ -2132,7 +1271,7 @@
       <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="27.41"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="21.48"/>
@@ -2272,7 +1411,7 @@
       <selection pane="topLeft" activeCell="B23" activeCellId="0" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="56.69"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="70.95"/>
@@ -2396,7 +1535,7 @@
       <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="62.8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="75.77"/>
@@ -2488,7 +1627,7 @@
       <selection pane="topLeft" activeCell="B20" activeCellId="0" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="61.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="75.03"/>
@@ -2628,7 +1767,7 @@
       <selection pane="topLeft" activeCell="B17" activeCellId="0" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="40.05"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="51"/>

--- a/src/main/resources/excel/Ingles Basico A1 Presente Simple y vocabulario.xlsx
+++ b/src/main/resources/excel/Ingles Basico A1 Presente Simple y vocabulario.xlsx
@@ -121,25 +121,25 @@
     <t xml:space="preserve">viernamita</t>
   </si>
   <si>
-    <t xml:space="preserve">who doesn’t like hot dogs?</t>
+    <t xml:space="preserve">who doesn't like hot dogs?</t>
   </si>
   <si>
     <t xml:space="preserve">¿A quién no le gustan los perritos calientes?</t>
   </si>
   <si>
-    <t xml:space="preserve">who doesn’t drink soda?</t>
+    <t xml:space="preserve">who doesn't drink soda?</t>
   </si>
   <si>
     <t xml:space="preserve">¿Quién no bebe refresco?</t>
   </si>
   <si>
-    <t xml:space="preserve">who doesn’t drink coffee?</t>
+    <t xml:space="preserve">who doesn't drink coffee?</t>
   </si>
   <si>
     <t xml:space="preserve">quien no toma cafe</t>
   </si>
   <si>
-    <t xml:space="preserve">I love pizza but I don’t like hot dogs, and you?</t>
+    <t xml:space="preserve">I love pizza but I don't like hot dogs, and you?</t>
   </si>
   <si>
     <t xml:space="preserve">Me encanta la pizza pero no me gustan los perritos calientes, ¿y a ti?</t>
@@ -151,7 +151,7 @@
     <t xml:space="preserve">Me encantan los perritos calientes y las hamburguesas. ¿Y usted?</t>
   </si>
   <si>
-    <t xml:space="preserve">I love hamburgers but I don’t drink soda</t>
+    <t xml:space="preserve">I love hamburgers but I don't drink soda</t>
   </si>
   <si>
     <t xml:space="preserve">Me encantan las hamburguesas pero no bebo refrescos.</t>
@@ -169,25 +169,25 @@
     <t xml:space="preserve">¿tomas te? Sí, bebo té y bebo café.</t>
   </si>
   <si>
-    <t xml:space="preserve">no, I don’t drink coffee, I prefer water</t>
+    <t xml:space="preserve">no, I don't drink coffee, I prefer water</t>
   </si>
   <si>
     <t xml:space="preserve">no, no tomo cafe, prefiero agua</t>
   </si>
   <si>
-    <t xml:space="preserve">jhon doesn’t like hot dogs</t>
+    <t xml:space="preserve">jhon doesn't like hot dogs</t>
   </si>
   <si>
     <t xml:space="preserve">a jhon no le gustan los perritos calientes</t>
   </si>
   <si>
-    <t xml:space="preserve">jhon doesn’t drink soda</t>
+    <t xml:space="preserve">jhon doesn't drink soda</t>
   </si>
   <si>
     <t xml:space="preserve">jhon no bebe refrescos</t>
   </si>
   <si>
-    <t xml:space="preserve">ana doesn’t drink coffee</t>
+    <t xml:space="preserve">ana doesn't drink coffee</t>
   </si>
   <si>
     <t xml:space="preserve">ana no toma cafe</t>
@@ -259,7 +259,7 @@
     <t xml:space="preserve">ella es un ingeniero</t>
   </si>
   <si>
-    <t xml:space="preserve">I like pizza but I don’t like to eat hamburgers</t>
+    <t xml:space="preserve">I like pizza but I don't like to eat hamburgers</t>
   </si>
   <si>
     <t xml:space="preserve">Me gusta la pizza pero no me gusta comer hamburguesas.</t>
@@ -271,7 +271,7 @@
     <t xml:space="preserve">Vivo viajando en coche y me encanta viajar en avión.</t>
   </si>
   <si>
-    <t xml:space="preserve">I don’t have plants in my house but I have a beautiful dog</t>
+    <t xml:space="preserve">I don't have plants in my house but I have a beautiful dog</t>
   </si>
   <si>
     <t xml:space="preserve">No tengo plantas en mi casa pero tengo un hermoso perro</t>
@@ -385,13 +385,13 @@
     <t xml:space="preserve">Ella tiene un perro</t>
   </si>
   <si>
-    <t xml:space="preserve">they don’t have a dog</t>
+    <t xml:space="preserve">they don't have a dog</t>
   </si>
   <si>
     <t xml:space="preserve">ellos no tienen un perro</t>
   </si>
   <si>
-    <t xml:space="preserve">tshe doesn’t have a dog</t>
+    <t xml:space="preserve">tshe doesn't have a dog</t>
   </si>
   <si>
     <t xml:space="preserve">ella no tiene perro</t>
@@ -571,13 +571,13 @@
     <t xml:space="preserve">hola jess como estas?</t>
   </si>
   <si>
-    <t xml:space="preserve">hi john I’m good</t>
+    <t xml:space="preserve">hi john I'm good</t>
   </si>
   <si>
     <t xml:space="preserve">hola juan estoy bien</t>
   </si>
   <si>
-    <t xml:space="preserve">what’s your daily routine?</t>
+    <t xml:space="preserve">what's your daily routine?</t>
   </si>
   <si>
     <t xml:space="preserve">¿cual es tu rutina diaria?</t>
@@ -759,7 +759,7 @@
       <selection pane="topLeft" activeCell="B28" activeCellId="0" sqref="B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -900,10 +900,10 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B19" activeCellId="0" sqref="B19"/>
+      <selection pane="topLeft" activeCell="A23" activeCellId="0" sqref="A23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="58.53"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="2" style="0" width="48.88"/>
@@ -976,10 +976,10 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
+      <selection pane="topLeft" activeCell="A28" activeCellId="0" sqref="A28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="52.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="60.2"/>
@@ -1103,7 +1103,7 @@
       <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="45.76"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="32.05"/>
@@ -1216,10 +1216,10 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B24" activeCellId="0" sqref="B24"/>
+      <selection pane="topLeft" activeCell="A24" activeCellId="0" sqref="A24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="58.17"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="89.29"/>
@@ -1271,7 +1271,7 @@
       <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="27.41"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="21.48"/>
@@ -1408,10 +1408,10 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B23" activeCellId="0" sqref="B23"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="56.69"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="70.95"/>
@@ -1532,10 +1532,10 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="topLeft" activeCell="A32" activeCellId="0" sqref="A32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="62.8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="75.77"/>
@@ -1624,10 +1624,10 @@
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B20" activeCellId="0" sqref="B20"/>
+      <selection pane="topLeft" activeCell="A14" activeCellId="0" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="61.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="75.03"/>
@@ -1764,10 +1764,10 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B17" activeCellId="0" sqref="B17"/>
+      <selection pane="topLeft" activeCell="B26" activeCellId="0" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="40.05"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="51"/>

--- a/src/main/resources/excel/Ingles Basico A1 Presente Simple y vocabulario.xlsx
+++ b/src/main/resources/excel/Ingles Basico A1 Presente Simple y vocabulario.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="9"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="nationality 2" sheetId="1" state="visible" r:id="rId2"/>
@@ -265,7 +265,7 @@
     <t xml:space="preserve">Me gusta la pizza pero no me gusta comer hamburguesas.</t>
   </si>
   <si>
-    <t xml:space="preserve">I live traveling by car and I love traveling by plane</t>
+    <t xml:space="preserve">I like traveling by car and I love traveling by plane</t>
   </si>
   <si>
     <t xml:space="preserve">Vivo viajando en coche y me encanta viajar en avión.</t>
@@ -759,7 +759,7 @@
       <selection pane="topLeft" activeCell="B28" activeCellId="0" sqref="B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -899,11 +899,11 @@
   </sheetPr>
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A23" activeCellId="0" sqref="A23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="58.53"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="2" style="0" width="48.88"/>
@@ -979,7 +979,7 @@
       <selection pane="topLeft" activeCell="A28" activeCellId="0" sqref="A28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="52.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="60.2"/>
@@ -1103,7 +1103,7 @@
       <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="45.76"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="32.05"/>
@@ -1215,11 +1215,11 @@
   </sheetPr>
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A24" activeCellId="0" sqref="A24"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="58.17"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="89.29"/>
@@ -1271,7 +1271,7 @@
       <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="27.41"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="21.48"/>
@@ -1411,7 +1411,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="56.69"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="70.95"/>
@@ -1535,7 +1535,7 @@
       <selection pane="topLeft" activeCell="A32" activeCellId="0" sqref="A32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="62.8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="75.77"/>
@@ -1627,7 +1627,7 @@
       <selection pane="topLeft" activeCell="A14" activeCellId="0" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="61.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="75.03"/>
@@ -1767,7 +1767,7 @@
       <selection pane="topLeft" activeCell="B26" activeCellId="0" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="40.05"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="51"/>

--- a/src/main/resources/excel/Ingles Basico A1 Presente Simple y vocabulario.xlsx
+++ b/src/main/resources/excel/Ingles Basico A1 Presente Simple y vocabulario.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="nationality 2" sheetId="1" state="visible" r:id="rId2"/>
@@ -145,7 +145,7 @@
     <t xml:space="preserve">Me encanta la pizza pero no me gustan los perritos calientes, ¿y a ti?</t>
   </si>
   <si>
-    <t xml:space="preserve">I love hot dogs and hamburges. What about you?</t>
+    <t xml:space="preserve">I love hot dogs and hamburgers. What about you?</t>
   </si>
   <si>
     <t xml:space="preserve">Me encantan los perritos calientes y las hamburguesas. ¿Y usted?</t>
@@ -759,7 +759,7 @@
       <selection pane="topLeft" activeCell="B28" activeCellId="0" sqref="B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -903,7 +903,7 @@
       <selection pane="topLeft" activeCell="A23" activeCellId="0" sqref="A23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="58.53"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="2" style="0" width="48.88"/>
@@ -975,11 +975,11 @@
   </sheetPr>
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A28" activeCellId="0" sqref="A28"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="52.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="60.2"/>
@@ -1103,7 +1103,7 @@
       <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="45.76"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="32.05"/>
@@ -1215,11 +1215,11 @@
   </sheetPr>
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="58.17"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="89.29"/>
@@ -1271,7 +1271,7 @@
       <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="27.41"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="21.48"/>
@@ -1411,7 +1411,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="56.69"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="70.95"/>
@@ -1535,7 +1535,7 @@
       <selection pane="topLeft" activeCell="A32" activeCellId="0" sqref="A32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="62.8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="75.77"/>
@@ -1627,7 +1627,7 @@
       <selection pane="topLeft" activeCell="A14" activeCellId="0" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="61.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="75.03"/>
@@ -1767,7 +1767,7 @@
       <selection pane="topLeft" activeCell="B26" activeCellId="0" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="40.05"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="51"/>

--- a/src/main/resources/excel/Ingles Basico A1 Presente Simple y vocabulario.xlsx
+++ b/src/main/resources/excel/Ingles Basico A1 Presente Simple y vocabulario.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="nationality 2" sheetId="1" state="visible" r:id="rId2"/>
@@ -391,7 +391,7 @@
     <t xml:space="preserve">ellos no tienen un perro</t>
   </si>
   <si>
-    <t xml:space="preserve">tshe doesn't have a dog</t>
+    <t xml:space="preserve">she doesn't have a dog</t>
   </si>
   <si>
     <t xml:space="preserve">ella no tiene perro</t>
@@ -759,7 +759,7 @@
       <selection pane="topLeft" activeCell="B28" activeCellId="0" sqref="B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -903,7 +903,7 @@
       <selection pane="topLeft" activeCell="A23" activeCellId="0" sqref="A23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="58.53"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="2" style="0" width="48.88"/>
@@ -975,11 +975,11 @@
   </sheetPr>
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="52.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="60.2"/>
@@ -1103,7 +1103,7 @@
       <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="45.76"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="32.05"/>
@@ -1219,7 +1219,7 @@
       <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="58.17"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="89.29"/>
@@ -1271,7 +1271,7 @@
       <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="27.41"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="21.48"/>
@@ -1407,11 +1407,11 @@
   </sheetPr>
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="56.69"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="70.95"/>
@@ -1535,7 +1535,7 @@
       <selection pane="topLeft" activeCell="A32" activeCellId="0" sqref="A32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="62.8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="75.77"/>
@@ -1627,7 +1627,7 @@
       <selection pane="topLeft" activeCell="A14" activeCellId="0" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="61.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="75.03"/>
@@ -1767,7 +1767,7 @@
       <selection pane="topLeft" activeCell="B26" activeCellId="0" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="40.05"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="51"/>

--- a/src/main/resources/excel/Ingles Basico A1 Presente Simple y vocabulario.xlsx
+++ b/src/main/resources/excel/Ingles Basico A1 Presente Simple y vocabulario.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="nationality 2" sheetId="1" state="visible" r:id="rId2"/>
@@ -115,7 +115,7 @@
     <t xml:space="preserve">español</t>
   </si>
   <si>
-    <t xml:space="preserve">viernamese</t>
+    <t xml:space="preserve">vietnamese</t>
   </si>
   <si>
     <t xml:space="preserve">viernamita</t>
@@ -755,11 +755,11 @@
   </sheetPr>
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B28" activeCellId="0" sqref="B28"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A17" activeCellId="0" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -903,7 +903,7 @@
       <selection pane="topLeft" activeCell="A23" activeCellId="0" sqref="A23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="58.53"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="2" style="0" width="48.88"/>
@@ -979,7 +979,7 @@
       <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="52.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="60.2"/>
@@ -1103,7 +1103,7 @@
       <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="45.76"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="32.05"/>
@@ -1219,7 +1219,7 @@
       <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="58.17"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="89.29"/>
@@ -1271,7 +1271,7 @@
       <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="27.41"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="21.48"/>
@@ -1407,11 +1407,11 @@
   </sheetPr>
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="56.69"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="70.95"/>
@@ -1535,7 +1535,7 @@
       <selection pane="topLeft" activeCell="A32" activeCellId="0" sqref="A32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="62.8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="75.77"/>
@@ -1627,7 +1627,7 @@
       <selection pane="topLeft" activeCell="A14" activeCellId="0" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="61.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="75.03"/>
@@ -1767,7 +1767,7 @@
       <selection pane="topLeft" activeCell="B26" activeCellId="0" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="40.05"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="51"/>
